--- a/Screening .xlsx
+++ b/Screening .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\UPLOAD TEST\12dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF7A47B-5109-49D5-B512-4405796DEB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383DA453-8D4B-4B52-B8E3-3C35CF90BAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="643">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1997,6 +1997,9 @@
   </si>
   <si>
     <t>This record is locked while pending approval. Please recall your submission if modifications are needed.</t>
+  </si>
+  <si>
+    <t>personName4</t>
   </si>
 </sst>
 </file>
@@ -9873,8 +9876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BA4" sqref="BA4"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10313,10 +10316,10 @@
         <v>123</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>482</v>
@@ -10328,10 +10331,10 @@
         <v>279</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>74</v>
+        <v>642</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>621</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>74</v>
@@ -10340,7 +10343,7 @@
         <v>485</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>280</v>
+        <v>486</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>487</v>
@@ -16439,7 +16442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -18337,15 +18340,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -18562,6 +18556,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -18573,14 +18576,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18599,6 +18594,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
